--- a/data/trans_bre/P44-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Edad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-4.670801615330447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.914732578104095</v>
+        <v>-5.914732578104101</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.1786117056265268</v>
@@ -627,7 +627,7 @@
         <v>-0.5760148083403175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.192960289670178</v>
+        <v>-0.1929602896701781</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.999567906965252</v>
+        <v>-3.752183649390821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.565747837234994</v>
+        <v>-8.591143002121344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.63363949858931</v>
+        <v>-12.43328655471594</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4580222745362373</v>
+        <v>-0.4358118681372288</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8208999950544275</v>
+        <v>-0.8192630963178821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.34254800151275</v>
+        <v>-0.3620159074717719</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.320531265931708</v>
+        <v>5.218353090928356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8031062299201758</v>
+        <v>-0.9464041812523095</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.445247249345027</v>
+        <v>0.9522031928930191</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.50628806786718</v>
+        <v>1.46852074530404</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.07919747450709448</v>
+        <v>-0.1040247351619136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05134638257684074</v>
+        <v>0.03629312649733752</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.661687485715887</v>
+        <v>-5.874797378859332</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.335521809925255</v>
+        <v>-7.550579497024226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.407853120357467</v>
+        <v>-7.852819758875881</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.463658189638753</v>
+        <v>-0.5054978607542041</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.567753293896235</v>
+        <v>-0.5614772239458171</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2033817644907675</v>
+        <v>-0.2142103292762849</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.75287681138629</v>
+        <v>2.223867616040659</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6561545077592346</v>
+        <v>0.3630947835626814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.220389465422977</v>
+        <v>2.172790833143816</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4278459828375427</v>
+        <v>0.2993513976186228</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07255809951117489</v>
+        <v>0.04991225478777255</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0733668021099519</v>
+        <v>0.07025806790000733</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-4.640063650360194</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.948795113761054</v>
+        <v>-7.948795113761042</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1241465235980025</v>
@@ -791,7 +791,7 @@
         <v>-0.3452604343136281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1764584063145132</v>
+        <v>-0.176458406314513</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.513577426598149</v>
+        <v>-6.797203222812742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.767614037888425</v>
+        <v>-9.593241749769701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.4609844033233</v>
+        <v>-13.23753646259057</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4634392220716147</v>
+        <v>-0.4804383864478335</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5856728706856225</v>
+        <v>-0.5956473138110654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2802599947347266</v>
+        <v>-0.2779019515287551</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.850571049457689</v>
+        <v>3.285424353694928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03854225364157191</v>
+        <v>0.2614171651758556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.269014496675329</v>
+        <v>-2.216553025397051</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.5090685578758898</v>
+        <v>0.4434800367050471</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01290509904043485</v>
+        <v>0.04971663133481956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.0563972562038174</v>
+        <v>-0.05387448211546054</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-6.56808366324204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-8.608239425664143</v>
+        <v>-8.608239425664138</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5116409079179576</v>
@@ -873,7 +873,7 @@
         <v>-0.4141354630097103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.239638404412689</v>
+        <v>-0.2396384044126889</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.9507203462368</v>
+        <v>-10.7816114589535</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.95129486909632</v>
+        <v>-12.26695851801683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-14.03576598351826</v>
+        <v>-13.87869660389752</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7427661368758131</v>
+        <v>-0.7412806973744425</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6349225420277994</v>
+        <v>-0.6449346889564453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3569463489956008</v>
+        <v>-0.3576671917301221</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.505616623957065</v>
+        <v>-1.483661765925499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.281133888125624</v>
+        <v>-1.59849736611847</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.272356939640968</v>
+        <v>-2.888355236056497</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1467288414857923</v>
+        <v>-0.16205899391685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.0905589844328198</v>
+        <v>-0.1082649761421925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09709869413357346</v>
+        <v>-0.09551014512205261</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.265223213685456</v>
+        <v>-4.326929062285305</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.68813377661812</v>
+        <v>-6.585348052253409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.442143998865669</v>
+        <v>-8.662309606867989</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3863188384715708</v>
+        <v>-0.4068850721209947</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5091073050835536</v>
+        <v>-0.5057390689734269</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2242660659634012</v>
+        <v>-0.2276373590721985</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4745563194675836</v>
+        <v>0.3656813721042818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.176955371180532</v>
+        <v>-1.998656398677975</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.051218628527574</v>
+        <v>-3.076275634056883</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.07376240079636191</v>
+        <v>0.0398127644468779</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2013397537051824</v>
+        <v>-0.1909535387916147</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.0901003541192576</v>
+        <v>-0.09098234357762264</v>
       </c>
     </row>
     <row r="19">
